--- a/Outputs/Exp_all_Run_all_exclusions_firstHour/Behavior Tables/run_all_exp_SA_inputData.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions_firstHour/Behavior Tables/run_all_exp_SA_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1637" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3274" uniqueCount="45">
   <si>
     <t>TagNumber</t>
   </si>
@@ -335,7 +335,9 @@
       <c r="Q2" s="0">
         <v>0</v>
       </c>
-      <c r="R2" s="0"/>
+      <c r="R2" s="0">
+        <v>17.577500000000015</v>
+      </c>
       <c r="S2" s="0">
         <v>0</v>
       </c>
@@ -396,7 +398,7 @@
         <v>5</v>
       </c>
       <c r="R3" s="0">
-        <v>42.206000000000003</v>
+        <v>40.917999999999992</v>
       </c>
       <c r="S3" s="0">
         <v>32.440800000000003</v>
@@ -458,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="R4" s="0">
-        <v>242.95200000000006</v>
+        <v>57.687500000000043</v>
       </c>
       <c r="S4" s="0">
         <v>22.978899999999999</v>
@@ -520,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="R5" s="0">
-        <v>14.575999999999976</v>
+        <v>13.399999999999977</v>
       </c>
       <c r="S5" s="0">
         <v>21.627200000000002</v>
@@ -582,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="R6" s="0">
-        <v>461.88666666666671</v>
+        <v>129.63250000000005</v>
       </c>
       <c r="S6" s="0">
         <v>29.737400000000001</v>
@@ -644,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="0">
-        <v>332.90666666666658</v>
+        <v>6.6749999999999545</v>
       </c>
       <c r="S7" s="0">
         <v>12.1653</v>
@@ -706,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="R8" s="0">
-        <v>353.44999999999999</v>
+        <v>12.469999999999999</v>
       </c>
       <c r="S8" s="0">
         <v>13.516999999999999</v>
@@ -768,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="R9" s="0">
-        <v>143.40250000000003</v>
+        <v>81.454285714285788</v>
       </c>
       <c r="S9" s="0">
         <v>28.385700000000003</v>
@@ -892,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="0">
-        <v>77.439999999999998</v>
+        <v>75.97999999999999</v>
       </c>
       <c r="S11" s="0">
         <v>6.7584999999999997</v>
@@ -954,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="0">
-        <v>45.290000000000049</v>
+        <v>45.173333333333382</v>
       </c>
       <c r="S12" s="0">
         <v>9.4619</v>
@@ -1016,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="R13" s="0">
-        <v>104.69000000000005</v>
+        <v>102.79666666666675</v>
       </c>
       <c r="S13" s="0">
         <v>13.516999999999999</v>
@@ -1078,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="R14" s="0">
-        <v>353.9666666666667</v>
+        <v>16.785000000000007</v>
       </c>
       <c r="S14" s="0">
         <v>13.516999999999999</v>
@@ -1264,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="0">
-        <v>243.95333333333335</v>
+        <v>24.78000000000003</v>
       </c>
       <c r="S17" s="0">
         <v>16.220400000000001</v>
@@ -1325,7 +1327,9 @@
       <c r="Q18" s="0">
         <v>0</v>
       </c>
-      <c r="R18" s="0"/>
+      <c r="R18" s="0">
+        <v>99.682499999999976</v>
+      </c>
       <c r="S18" s="0">
         <v>0</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="R20" s="0">
-        <v>21.090000000000078</v>
+        <v>20.500000000000078</v>
       </c>
       <c r="S20" s="0">
         <v>16.220400000000001</v>
@@ -1510,7 +1514,7 @@
         <v>12</v>
       </c>
       <c r="R21" s="0">
-        <v>33.294166666666662</v>
+        <v>31.527499999999989</v>
       </c>
       <c r="S21" s="0">
         <v>28.385700000000003</v>
@@ -1572,7 +1576,7 @@
         <v>11</v>
       </c>
       <c r="R22" s="0">
-        <v>107.00999999999993</v>
+        <v>40.89899999999998</v>
       </c>
       <c r="S22" s="0">
         <v>35.144200000000005</v>
@@ -1634,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="R23" s="0">
-        <v>59.144999999999982</v>
+        <v>58.817500000000024</v>
       </c>
       <c r="S23" s="0">
         <v>12.1653</v>
@@ -1696,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="R24" s="0">
-        <v>301.57999999999998</v>
+        <v>28.365999999999985</v>
       </c>
       <c r="S24" s="0">
         <v>13.516999999999999</v>
@@ -1758,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="R25" s="0">
-        <v>45.247142857142826</v>
+        <v>44.8685714285714</v>
       </c>
       <c r="S25" s="0">
         <v>29.737400000000001</v>
@@ -1820,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="R26" s="0">
-        <v>59.717000000000063</v>
+        <v>59.407000000000025</v>
       </c>
       <c r="S26" s="0">
         <v>36.495899999999999</v>
@@ -1944,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="R28" s="0">
-        <v>25.306666666666597</v>
+        <v>24.889999999999969</v>
       </c>
       <c r="S28" s="0">
         <v>14.8687</v>
@@ -2006,7 +2010,7 @@
         <v>7</v>
       </c>
       <c r="R29" s="0">
-        <v>33.915714285714301</v>
+        <v>32.831428571428567</v>
       </c>
       <c r="S29" s="0">
         <v>47.309500000000007</v>
@@ -2068,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="R30" s="0">
-        <v>132.55428571428573</v>
+        <v>64.430000000000021</v>
       </c>
       <c r="S30" s="0">
         <v>29.737400000000001</v>
@@ -2130,7 +2134,7 @@
         <v>6</v>
       </c>
       <c r="R31" s="0">
-        <v>372.88600000000008</v>
+        <v>60.17250000000007</v>
       </c>
       <c r="S31" s="0">
         <v>25.682299999999998</v>
@@ -2192,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="R32" s="0">
-        <v>22.743333333333315</v>
+        <v>22.601666666666656</v>
       </c>
       <c r="S32" s="0">
         <v>27.033999999999999</v>
@@ -2254,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="R33" s="0">
-        <v>253.95000000000005</v>
+        <v>63.75</v>
       </c>
       <c r="S33" s="0">
         <v>14.8687</v>
@@ -2315,7 +2319,9 @@
       <c r="Q34" s="0">
         <v>0</v>
       </c>
-      <c r="R34" s="0"/>
+      <c r="R34" s="0">
+        <v>212.45500000000004</v>
+      </c>
       <c r="S34" s="0">
         <v>0</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="R35" s="0">
-        <v>6.2475000000000307</v>
+        <v>6.0550000000000352</v>
       </c>
       <c r="S35" s="0">
         <v>9.4619</v>
@@ -2438,7 +2444,7 @@
         <v>7</v>
       </c>
       <c r="R36" s="0">
-        <v>5.0842857142856861</v>
+        <v>4.4814285714285562</v>
       </c>
       <c r="S36" s="0">
         <v>13.516999999999999</v>
@@ -2560,7 +2566,7 @@
         <v>37</v>
       </c>
       <c r="R38" s="0">
-        <v>1.1762162162162233</v>
+        <v>1.1257142857142886</v>
       </c>
       <c r="S38" s="0">
         <v>125.7081</v>
@@ -2622,7 +2628,7 @@
         <v>62</v>
       </c>
       <c r="R39" s="0">
-        <v>1.1530645161290443</v>
+        <v>0.97198019801982194</v>
       </c>
       <c r="S39" s="0">
         <v>109.4877</v>
@@ -2684,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="R40" s="0">
-        <v>8.0204347826086924</v>
+        <v>11.741034482758613</v>
       </c>
       <c r="S40" s="0">
         <v>41.902699999999996</v>
@@ -2746,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="R41" s="0">
-        <v>15.947857142857144</v>
+        <v>13.421999999999999</v>
       </c>
       <c r="S41" s="0">
         <v>43.254400000000004</v>
@@ -2808,7 +2814,7 @@
         <v>13</v>
       </c>
       <c r="R42" s="0">
-        <v>4.0761538461538276</v>
+        <v>3.8399999999999803</v>
       </c>
       <c r="S42" s="0">
         <v>48.661200000000001</v>
@@ -2870,7 +2876,7 @@
         <v>11</v>
       </c>
       <c r="R43" s="0">
-        <v>39.953636363636377</v>
+        <v>38.990909090909106</v>
       </c>
       <c r="S43" s="0">
         <v>41.902699999999996</v>
@@ -2932,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="R44" s="0">
-        <v>16.699999999999999</v>
+        <v>16.349999999999987</v>
       </c>
       <c r="S44" s="0">
         <v>33.792500000000004</v>
@@ -2994,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="R45" s="0">
-        <v>41.462000000000003</v>
+        <v>40.299000000000014</v>
       </c>
       <c r="S45" s="0">
         <v>32.440800000000003</v>
@@ -3056,7 +3062,7 @@
         <v>10</v>
       </c>
       <c r="R46" s="0">
-        <v>45.182000000000016</v>
+        <v>44.810000000000016</v>
       </c>
       <c r="S46" s="0">
         <v>29.737400000000001</v>
@@ -3118,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="R47" s="0">
-        <v>3.0566666666667168</v>
+        <v>2.5791666666667177</v>
       </c>
       <c r="S47" s="0">
         <v>37.8476</v>
@@ -3180,7 +3186,7 @@
         <v>15</v>
       </c>
       <c r="R48" s="0">
-        <v>6.7526666666666681</v>
+        <v>5.0249999999999959</v>
       </c>
       <c r="S48" s="0">
         <v>33.792500000000004</v>
@@ -3242,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="R49" s="0">
-        <v>8.6175000000000104</v>
+        <v>6.798000000000016</v>
       </c>
       <c r="S49" s="0">
         <v>31.089100000000002</v>
@@ -3303,7 +3309,9 @@
       <c r="Q50" s="0">
         <v>0</v>
       </c>
-      <c r="R50" s="0"/>
+      <c r="R50" s="0">
+        <v>15.413999999999987</v>
+      </c>
       <c r="S50" s="0">
         <v>0</v>
       </c>
@@ -3364,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="R51" s="0">
-        <v>12.103333333333467</v>
+        <v>13.26400000000017</v>
       </c>
       <c r="S51" s="0">
         <v>4.0551000000000004</v>
@@ -3426,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="R52" s="0">
-        <v>22.81833333333331</v>
+        <v>22.294999999999977</v>
       </c>
       <c r="S52" s="0">
         <v>13.516999999999999</v>
@@ -3488,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="R53" s="0">
-        <v>48.588571428571456</v>
+        <v>47.394285714285765</v>
       </c>
       <c r="S53" s="0">
         <v>14.8687</v>
@@ -3550,7 +3558,7 @@
         <v>6</v>
       </c>
       <c r="R54" s="0">
-        <v>33.320000000000014</v>
+        <v>33.07500000000001</v>
       </c>
       <c r="S54" s="0">
         <v>13.516999999999999</v>
@@ -3674,7 +3682,7 @@
         <v>6</v>
       </c>
       <c r="R56" s="0">
-        <v>11.136666666666732</v>
+        <v>10.844999999999999</v>
       </c>
       <c r="S56" s="0">
         <v>16.220400000000001</v>
@@ -3736,7 +3744,7 @@
         <v>9</v>
       </c>
       <c r="R57" s="0">
-        <v>3.8344444444444181</v>
+        <v>3.1355555555555301</v>
       </c>
       <c r="S57" s="0">
         <v>14.8687</v>
@@ -3798,7 +3806,7 @@
         <v>7</v>
       </c>
       <c r="R58" s="0">
-        <v>1.8485714285714525</v>
+        <v>1.697142857142889</v>
       </c>
       <c r="S58" s="0">
         <v>28.385700000000003</v>
@@ -3860,7 +3868,7 @@
         <v>18</v>
       </c>
       <c r="R59" s="0">
-        <v>1.5811111111111069</v>
+        <v>1.6057894736842055</v>
       </c>
       <c r="S59" s="0">
         <v>35.144200000000005</v>
@@ -3984,7 +3992,7 @@
         <v>9</v>
       </c>
       <c r="R61" s="0">
-        <v>1.2877777777777513</v>
+        <v>1.2779999999999816</v>
       </c>
       <c r="S61" s="0">
         <v>27.033999999999999</v>
@@ -4046,7 +4054,7 @@
         <v>9</v>
       </c>
       <c r="R62" s="0">
-        <v>1.1788888888888951</v>
+        <v>1.1511111111111174</v>
       </c>
       <c r="S62" s="0">
         <v>32.440800000000003</v>
@@ -4108,7 +4116,7 @@
         <v>21</v>
       </c>
       <c r="R63" s="0">
-        <v>0.90428571428571602</v>
+        <v>0.86142857142857832</v>
       </c>
       <c r="S63" s="0">
         <v>37.8476</v>
@@ -4170,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="R64" s="0">
-        <v>5.7807692307691969</v>
+        <v>5.3323529411764481</v>
       </c>
       <c r="S64" s="0">
         <v>28.385700000000003</v>
@@ -4231,7 +4239,9 @@
       <c r="Q65" s="0">
         <v>0</v>
       </c>
-      <c r="R65" s="0"/>
+      <c r="R65" s="0">
+        <v>180.70499999999996</v>
+      </c>
       <c r="S65" s="0">
         <v>0</v>
       </c>
@@ -4354,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="R67" s="0">
-        <v>18.720000000000027</v>
+        <v>16.230000000000103</v>
       </c>
       <c r="S67" s="0">
         <v>6.7584999999999997</v>
@@ -4416,7 +4426,7 @@
         <v>9</v>
       </c>
       <c r="R68" s="0">
-        <v>176.34888888888884</v>
+        <v>34.243333333333325</v>
       </c>
       <c r="S68" s="0">
         <v>22.978899999999999</v>
@@ -4478,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="R69" s="0">
-        <v>92.82000000000005</v>
+        <v>12.907500000000027</v>
       </c>
       <c r="S69" s="0">
         <v>18.9238</v>
@@ -4540,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="R70" s="0">
-        <v>572.06499999999994</v>
+        <v>49.329999999999984</v>
       </c>
       <c r="S70" s="0">
         <v>6.7584999999999997</v>
@@ -4602,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="R71" s="0">
-        <v>225.25000000000011</v>
+        <v>100.61666666666672</v>
       </c>
       <c r="S71" s="0">
         <v>10.813600000000001</v>
@@ -4664,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="R72" s="0">
-        <v>177.52499999999995</v>
+        <v>76.713333333333239</v>
       </c>
       <c r="S72" s="0">
         <v>17.572100000000002</v>
@@ -4788,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="R74" s="0">
-        <v>452.96000000000004</v>
+        <v>161.49500000000012</v>
       </c>
       <c r="S74" s="0">
         <v>10.813600000000001</v>
@@ -4850,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="R75" s="0">
-        <v>555.6149999999999</v>
+        <v>8.9600000000000364</v>
       </c>
       <c r="S75" s="0">
         <v>9.4619</v>
@@ -4974,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="R77" s="0">
-        <v>619.14999999999986</v>
+        <v>37.099999999999909</v>
       </c>
       <c r="S77" s="0">
         <v>2.7034000000000002</v>
@@ -5098,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="R79" s="0">
-        <v>66.605000000000018</v>
+        <v>62.67999999999995</v>
       </c>
       <c r="S79" s="0">
         <v>5.4068000000000005</v>
@@ -5160,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="R80" s="0">
-        <v>26.900000000000034</v>
+        <v>26.5</v>
       </c>
       <c r="S80" s="0">
         <v>1.3517000000000001</v>
@@ -5221,7 +5231,9 @@
       <c r="Q81" s="0">
         <v>0</v>
       </c>
-      <c r="R81" s="0"/>
+      <c r="R81" s="0">
+        <v>26.283749999999962</v>
+      </c>
       <c r="S81" s="0">
         <v>0</v>
       </c>
@@ -5282,7 +5294,7 @@
         <v>8</v>
       </c>
       <c r="R82" s="0">
-        <v>11.126250000000027</v>
+        <v>10.300000000000011</v>
       </c>
       <c r="S82" s="0">
         <v>18.9238</v>
@@ -5344,7 +5356,7 @@
         <v>13</v>
       </c>
       <c r="R83" s="0">
-        <v>8.0761538461538276</v>
+        <v>6.1607142857142678</v>
       </c>
       <c r="S83" s="0">
         <v>18.9238</v>
@@ -5406,7 +5418,7 @@
         <v>12</v>
       </c>
       <c r="R84" s="0">
-        <v>4.8508333333333367</v>
+        <v>3.7000000000000193</v>
       </c>
       <c r="S84" s="0">
         <v>52.716300000000004</v>
@@ -5468,7 +5480,7 @@
         <v>16</v>
       </c>
       <c r="R85" s="0">
-        <v>13.199374999999971</v>
+        <v>12.275882352941156</v>
       </c>
       <c r="S85" s="0">
         <v>68.936700000000002</v>
@@ -5530,7 +5542,7 @@
         <v>11</v>
       </c>
       <c r="R86" s="0">
-        <v>7.2254545454545083</v>
+        <v>6.664999999999984</v>
       </c>
       <c r="S86" s="0">
         <v>27.033999999999999</v>
@@ -5592,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="R87" s="0">
-        <v>3.7716666666667407</v>
+        <v>3.5525000000000495</v>
       </c>
       <c r="S87" s="0">
         <v>31.089100000000002</v>
@@ -5654,7 +5666,7 @@
         <v>5</v>
       </c>
       <c r="R88" s="0">
-        <v>2.6600000000000024</v>
+        <v>2.5600000000000023</v>
       </c>
       <c r="S88" s="0">
         <v>18.9238</v>
@@ -5716,7 +5728,7 @@
         <v>11</v>
       </c>
       <c r="R89" s="0">
-        <v>18.414545454545443</v>
+        <v>19.028461538461521</v>
       </c>
       <c r="S89" s="0">
         <v>27.033999999999999</v>
@@ -5778,7 +5790,7 @@
         <v>9</v>
       </c>
       <c r="R90" s="0">
-        <v>16.468888888888873</v>
+        <v>16.29777777777776</v>
       </c>
       <c r="S90" s="0">
         <v>31.089100000000002</v>
@@ -5840,7 +5852,7 @@
         <v>5</v>
       </c>
       <c r="R91" s="0">
-        <v>9.4979999999999958</v>
+        <v>8.4619999999999944</v>
       </c>
       <c r="S91" s="0">
         <v>18.9238</v>
@@ -5902,7 +5914,7 @@
         <v>17</v>
       </c>
       <c r="R92" s="0">
-        <v>16.090588235294128</v>
+        <v>14.89777777777778</v>
       </c>
       <c r="S92" s="0">
         <v>35.144200000000005</v>
@@ -5964,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="R93" s="0">
-        <v>4.4454545454545551</v>
+        <v>3.9227272727272715</v>
       </c>
       <c r="S93" s="0">
         <v>28.385700000000003</v>
@@ -6026,7 +6038,7 @@
         <v>12</v>
       </c>
       <c r="R94" s="0">
-        <v>48.98333333333332</v>
+        <v>10.157499999999972</v>
       </c>
       <c r="S94" s="0">
         <v>31.089100000000002</v>
@@ -6088,7 +6100,7 @@
         <v>9</v>
       </c>
       <c r="R95" s="0">
-        <v>6.9277777777777949</v>
+        <v>6.5100000000000078</v>
       </c>
       <c r="S95" s="0">
         <v>33.792500000000004</v>
@@ -6150,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="R96" s="0">
-        <v>3.6863636363636711</v>
+        <v>3.294615384615438</v>
       </c>
       <c r="S96" s="0">
         <v>37.8476</v>
@@ -6211,7 +6223,9 @@
       <c r="Q97" s="0">
         <v>0</v>
       </c>
-      <c r="R97" s="0"/>
+      <c r="R97" s="0">
+        <v>63.439999999999941</v>
+      </c>
       <c r="S97" s="0">
         <v>0</v>
       </c>
@@ -6272,7 +6286,7 @@
         <v>3</v>
       </c>
       <c r="R98" s="0">
-        <v>9.7500000000000373</v>
+        <v>7.8066666666666906</v>
       </c>
       <c r="S98" s="0">
         <v>8.1102000000000007</v>
@@ -6334,7 +6348,7 @@
         <v>8</v>
       </c>
       <c r="R99" s="0">
-        <v>33.025000000000048</v>
+        <v>32.267500000000055</v>
       </c>
       <c r="S99" s="0">
         <v>25.682299999999998</v>
@@ -6396,7 +6410,7 @@
         <v>5</v>
       </c>
       <c r="R100" s="0">
-        <v>16.297999999999984</v>
+        <v>14.180000000000012</v>
       </c>
       <c r="S100" s="0">
         <v>116.2462</v>
@@ -6458,7 +6472,7 @@
         <v>5</v>
       </c>
       <c r="R101" s="0">
-        <v>23.78599999999998</v>
+        <v>20.007999999999935</v>
       </c>
       <c r="S101" s="0">
         <v>86.508800000000008</v>
@@ -6520,7 +6534,7 @@
         <v>6</v>
       </c>
       <c r="R102" s="0">
-        <v>20.205000000000013</v>
+        <v>18.564999999999987</v>
       </c>
       <c r="S102" s="0">
         <v>98.67410000000001</v>
@@ -6582,7 +6596,7 @@
         <v>5</v>
       </c>
       <c r="R103" s="0">
-        <v>39.794000000000032</v>
+        <v>38.052000000000035</v>
       </c>
       <c r="S103" s="0">
         <v>58.123100000000001</v>
@@ -6644,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="R104" s="0">
-        <v>22.010000000000048</v>
+        <v>21.466666666666715</v>
       </c>
       <c r="S104" s="0">
         <v>48.661200000000001</v>
@@ -6706,7 +6720,7 @@
         <v>6</v>
       </c>
       <c r="R105" s="0">
-        <v>208.655</v>
+        <v>30.522000000000002</v>
       </c>
       <c r="S105" s="0">
         <v>44.606100000000005</v>
@@ -6830,7 +6844,7 @@
         <v>5</v>
       </c>
       <c r="R107" s="0">
-        <v>25.187500000000036</v>
+        <v>25.162500000000037</v>
       </c>
       <c r="S107" s="0">
         <v>22.978899999999999</v>
@@ -6892,7 +6906,7 @@
         <v>14</v>
       </c>
       <c r="R108" s="0">
-        <v>21.678571428571413</v>
+        <v>20.392857142857128</v>
       </c>
       <c r="S108" s="0">
         <v>28.385700000000003</v>
@@ -7016,7 +7030,7 @@
         <v>8</v>
       </c>
       <c r="R110" s="0">
-        <v>55.782499999999999</v>
+        <v>55.594999999999999</v>
       </c>
       <c r="S110" s="0">
         <v>35.144200000000005</v>
@@ -7078,7 +7092,7 @@
         <v>11</v>
       </c>
       <c r="R111" s="0">
-        <v>31.840000000000035</v>
+        <v>31.800000000000033</v>
       </c>
       <c r="S111" s="0">
         <v>28.385700000000003</v>
@@ -7140,7 +7154,7 @@
         <v>16</v>
       </c>
       <c r="R112" s="0">
-        <v>8.7706250000000416</v>
+        <v>8.5731250000000383</v>
       </c>
       <c r="S112" s="0">
         <v>39.199300000000001</v>
@@ -7201,7 +7215,9 @@
       <c r="Q113" s="0">
         <v>0</v>
       </c>
-      <c r="R113" s="0"/>
+      <c r="R113" s="0">
+        <v>34.335000000000093</v>
+      </c>
       <c r="S113" s="0">
         <v>0</v>
       </c>
@@ -7262,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="R114" s="0">
-        <v>13.997500000000031</v>
+        <v>9.7625000000000171</v>
       </c>
       <c r="S114" s="0">
         <v>6.7584999999999997</v>
@@ -7446,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="R117" s="0">
-        <v>19.900000000000006</v>
+        <v>17.95750000000001</v>
       </c>
       <c r="S117" s="0">
         <v>8.1102000000000007</v>
@@ -7507,9 +7523,7 @@
       <c r="Q118" s="0">
         <v>1</v>
       </c>
-      <c r="R118" s="0">
-        <v>1382.3600000000001</v>
-      </c>
+      <c r="R118" s="0"/>
       <c r="S118" s="0">
         <v>5.4068000000000005</v>
       </c>
@@ -7570,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="R119" s="0">
-        <v>104.94749999999996</v>
+        <v>99.944999999999965</v>
       </c>
       <c r="S119" s="0">
         <v>14.8687</v>
@@ -7632,7 +7646,7 @@
         <v>4</v>
       </c>
       <c r="R120" s="0">
-        <v>69.586666666666687</v>
+        <v>68.86666666666666</v>
       </c>
       <c r="S120" s="0">
         <v>21.627200000000002</v>
@@ -7694,7 +7708,7 @@
         <v>4</v>
       </c>
       <c r="R121" s="0">
-        <v>305.8775</v>
+        <v>17.933333333333334</v>
       </c>
       <c r="S121" s="0">
         <v>10.813600000000001</v>
@@ -7756,7 +7770,7 @@
         <v>2</v>
       </c>
       <c r="R122" s="0">
-        <v>11.745000000000005</v>
+        <v>11.104999999999983</v>
       </c>
       <c r="S122" s="0">
         <v>8.1102000000000007</v>
@@ -7818,7 +7832,7 @@
         <v>6</v>
       </c>
       <c r="R123" s="0">
-        <v>162.63799999999995</v>
+        <v>40.774999999999949</v>
       </c>
       <c r="S123" s="0">
         <v>13.516999999999999</v>
@@ -7880,7 +7894,7 @@
         <v>4</v>
       </c>
       <c r="R124" s="0">
-        <v>13.954999999999995</v>
+        <v>13.152500000000028</v>
       </c>
       <c r="S124" s="0">
         <v>6.7584999999999997</v>
@@ -7942,7 +7956,7 @@
         <v>2</v>
       </c>
       <c r="R125" s="0">
-        <v>80.179999999999993</v>
+        <v>75.885000000000005</v>
       </c>
       <c r="S125" s="0">
         <v>10.813600000000001</v>
@@ -8004,7 +8018,7 @@
         <v>4</v>
       </c>
       <c r="R126" s="0">
-        <v>480.25749999999994</v>
+        <v>12.45999999999996</v>
       </c>
       <c r="S126" s="0">
         <v>8.1102000000000007</v>
@@ -8066,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="R127" s="0">
-        <v>7.1466666666665519</v>
+        <v>3.0633333333332566</v>
       </c>
       <c r="S127" s="0">
         <v>10.813600000000001</v>
@@ -8127,7 +8141,9 @@
       <c r="Q128" s="0">
         <v>0</v>
       </c>
-      <c r="R128" s="0"/>
+      <c r="R128" s="0">
+        <v>134.68714285714287</v>
+      </c>
       <c r="S128" s="0">
         <v>0</v>
       </c>
@@ -8310,7 +8326,7 @@
         <v>5</v>
       </c>
       <c r="R131" s="0">
-        <v>286.33799999999997</v>
+        <v>59.477500000000013</v>
       </c>
       <c r="S131" s="0">
         <v>18.9238</v>
@@ -8434,7 +8450,7 @@
         <v>8</v>
       </c>
       <c r="R133" s="0">
-        <v>99.258571428571528</v>
+        <v>98.674285714285816</v>
       </c>
       <c r="S133" s="0">
         <v>32.440800000000003</v>
@@ -8496,7 +8512,7 @@
         <v>2</v>
       </c>
       <c r="R134" s="0">
-        <v>352.17499999999995</v>
+        <v>35.299999999999955</v>
       </c>
       <c r="S134" s="0">
         <v>14.8687</v>
@@ -8620,7 +8636,7 @@
         <v>5</v>
       </c>
       <c r="R136" s="0">
-        <v>410.25749999999994</v>
+        <v>172.74666666666667</v>
       </c>
       <c r="S136" s="0">
         <v>24.3306</v>
@@ -8681,9 +8697,7 @@
       <c r="Q137" s="0">
         <v>1</v>
       </c>
-      <c r="R137" s="0">
-        <v>773.67999999999995</v>
-      </c>
+      <c r="R137" s="0"/>
       <c r="S137" s="0">
         <v>10.813600000000001</v>
       </c>
@@ -8744,7 +8758,7 @@
         <v>6</v>
       </c>
       <c r="R138" s="0">
-        <v>43.108000000000018</v>
+        <v>42.760000000000005</v>
       </c>
       <c r="S138" s="0">
         <v>45.957799999999999</v>
@@ -8806,7 +8820,7 @@
         <v>6</v>
       </c>
       <c r="R139" s="0">
-        <v>25.358000000000001</v>
+        <v>25.030000000000033</v>
       </c>
       <c r="S139" s="0">
         <v>35.144200000000005</v>
@@ -8868,7 +8882,7 @@
         <v>5</v>
       </c>
       <c r="R140" s="0">
-        <v>220.75399999999996</v>
+        <v>87.589999999999918</v>
       </c>
       <c r="S140" s="0">
         <v>27.033999999999999</v>
@@ -8930,7 +8944,7 @@
         <v>4</v>
       </c>
       <c r="R141" s="0">
-        <v>326.73500000000007</v>
+        <v>7.9066666666666663</v>
       </c>
       <c r="S141" s="0">
         <v>18.9238</v>
@@ -8992,7 +9006,7 @@
         <v>5</v>
       </c>
       <c r="R142" s="0">
-        <v>27.26599999999997</v>
+        <v>25.973999999999961</v>
       </c>
       <c r="S142" s="0">
         <v>50.012900000000002</v>
@@ -9053,7 +9067,9 @@
       <c r="Q143" s="0">
         <v>0</v>
       </c>
-      <c r="R143" s="0"/>
+      <c r="R143" s="0">
+        <v>28.510000000000023</v>
+      </c>
       <c r="S143" s="0">
         <v>0</v>
       </c>
@@ -9114,7 +9130,7 @@
         <v>17</v>
       </c>
       <c r="R144" s="0">
-        <v>9.8523529411764716</v>
+        <v>7.4570588235294206</v>
       </c>
       <c r="S144" s="0">
         <v>28.385700000000003</v>
@@ -9176,7 +9192,7 @@
         <v>17</v>
       </c>
       <c r="R145" s="0">
-        <v>12.475882352941168</v>
+        <v>11.028421052631574</v>
       </c>
       <c r="S145" s="0">
         <v>36.495899999999999</v>
@@ -9238,7 +9254,7 @@
         <v>17</v>
       </c>
       <c r="R146" s="0">
-        <v>12.57470588235296</v>
+        <v>11.887058823529427</v>
       </c>
       <c r="S146" s="0">
         <v>31.089100000000002</v>
@@ -9300,7 +9316,7 @@
         <v>18</v>
       </c>
       <c r="R147" s="0">
-        <v>4.6922222222222274</v>
+        <v>4.2061111111111167</v>
       </c>
       <c r="S147" s="0">
         <v>35.144200000000005</v>
@@ -9362,7 +9378,7 @@
         <v>9</v>
       </c>
       <c r="R148" s="0">
-        <v>35.735555555555557</v>
+        <v>35.535555555555554</v>
       </c>
       <c r="S148" s="0">
         <v>31.089100000000002</v>
@@ -9424,7 +9440,7 @@
         <v>11</v>
       </c>
       <c r="R149" s="0">
-        <v>30.237999999999953</v>
+        <v>29.021999999999945</v>
       </c>
       <c r="S149" s="0">
         <v>44.606100000000005</v>
@@ -9486,7 +9502,7 @@
         <v>12</v>
       </c>
       <c r="R150" s="0">
-        <v>6.7608333333333333</v>
+        <v>5.2169230769230799</v>
       </c>
       <c r="S150" s="0">
         <v>25.682299999999998</v>
@@ -9548,7 +9564,7 @@
         <v>3</v>
       </c>
       <c r="R151" s="0">
-        <v>105.70666666666665</v>
+        <v>79.247499999999988</v>
       </c>
       <c r="S151" s="0">
         <v>6.7584999999999997</v>
@@ -9610,7 +9626,7 @@
         <v>6</v>
       </c>
       <c r="R152" s="0">
-        <v>9.1416666666666995</v>
+        <v>7.1816666666667421</v>
       </c>
       <c r="S152" s="0">
         <v>14.8687</v>
@@ -9672,7 +9688,7 @@
         <v>7</v>
       </c>
       <c r="R153" s="0">
-        <v>177.84571428571431</v>
+        <v>13.49</v>
       </c>
       <c r="S153" s="0">
         <v>24.3306</v>
@@ -9734,7 +9750,7 @@
         <v>6</v>
       </c>
       <c r="R154" s="0">
-        <v>9.5299999999999994</v>
+        <v>9.4083333333333332</v>
       </c>
       <c r="S154" s="0">
         <v>18.9238</v>
@@ -9796,7 +9812,7 @@
         <v>12</v>
       </c>
       <c r="R155" s="0">
-        <v>3.4291666666666725</v>
+        <v>2.9230769230769287</v>
       </c>
       <c r="S155" s="0">
         <v>29.737400000000001</v>
@@ -9858,7 +9874,7 @@
         <v>9</v>
       </c>
       <c r="R156" s="0">
-        <v>9.2333333333333361</v>
+        <v>8.8020000000000032</v>
       </c>
       <c r="S156" s="0">
         <v>18.9238</v>
@@ -9920,7 +9936,7 @@
         <v>12</v>
       </c>
       <c r="R157" s="0">
-        <v>143.97333333333333</v>
+        <v>5.2161538461538379</v>
       </c>
       <c r="S157" s="0">
         <v>21.627200000000002</v>
@@ -9981,7 +9997,9 @@
       <c r="Q158" s="0">
         <v>0</v>
       </c>
-      <c r="R158" s="0"/>
+      <c r="R158" s="0">
+        <v>88.84571428571428</v>
+      </c>
       <c r="S158" s="0">
         <v>0</v>
       </c>
@@ -10042,7 +10060,7 @@
         <v>8</v>
       </c>
       <c r="R159" s="0">
-        <v>165.48857142857142</v>
+        <v>128.38333333333333</v>
       </c>
       <c r="S159" s="0">
         <v>43.254400000000004</v>
@@ -10164,7 +10182,7 @@
         <v>6</v>
       </c>
       <c r="R161" s="0">
-        <v>89.496666666666712</v>
+        <v>87.901666666666685</v>
       </c>
       <c r="S161" s="0">
         <v>47.309500000000007</v>
@@ -10226,7 +10244,7 @@
         <v>8</v>
       </c>
       <c r="R162" s="0">
-        <v>264.79000000000002</v>
+        <v>17.112857142857159</v>
       </c>
       <c r="S162" s="0">
         <v>93.267299999999992</v>
@@ -10412,7 +10430,7 @@
         <v>5</v>
       </c>
       <c r="R165" s="0">
-        <v>34.16749999999999</v>
+        <v>34.124999999999993</v>
       </c>
       <c r="S165" s="0">
         <v>31.089100000000002</v>
@@ -10474,7 +10492,7 @@
         <v>5</v>
       </c>
       <c r="R166" s="0">
-        <v>82.852000000000004</v>
+        <v>82.486000000000018</v>
       </c>
       <c r="S166" s="0">
         <v>13.516999999999999</v>
@@ -10536,7 +10554,7 @@
         <v>3</v>
       </c>
       <c r="R167" s="0">
-        <v>180.77333333333331</v>
+        <v>64.404999999999973</v>
       </c>
       <c r="S167" s="0">
         <v>10.813600000000001</v>
@@ -10598,7 +10616,7 @@
         <v>12</v>
       </c>
       <c r="R168" s="0">
-        <v>37.236363636363578</v>
+        <v>37.021818181818112</v>
       </c>
       <c r="S168" s="0">
         <v>62.178200000000004</v>
@@ -10784,7 +10802,7 @@
         <v>2</v>
       </c>
       <c r="R171" s="0">
-        <v>708.85500000000002</v>
+        <v>283</v>
       </c>
       <c r="S171" s="0">
         <v>9.4619</v>
@@ -10846,7 +10864,7 @@
         <v>2</v>
       </c>
       <c r="R172" s="0">
-        <v>9.2300000000000004</v>
+        <v>8.2999999999999972</v>
       </c>
       <c r="S172" s="0">
         <v>14.8687</v>
@@ -10907,7 +10925,9 @@
       <c r="Q173" s="0">
         <v>0</v>
       </c>
-      <c r="R173" s="0"/>
+      <c r="R173" s="0">
+        <v>33.002499999999941</v>
+      </c>
       <c r="S173" s="0">
         <v>0</v>
       </c>
@@ -10968,7 +10988,7 @@
         <v>15</v>
       </c>
       <c r="R174" s="0">
-        <v>14.420666666666667</v>
+        <v>12.554000000000007</v>
       </c>
       <c r="S174" s="0">
         <v>37.8476</v>
@@ -11030,7 +11050,7 @@
         <v>5</v>
       </c>
       <c r="R175" s="0">
-        <v>12.283999999999997</v>
+        <v>12.219999999999988</v>
       </c>
       <c r="S175" s="0">
         <v>31.089100000000002</v>
@@ -11092,7 +11112,7 @@
         <v>10</v>
       </c>
       <c r="R176" s="0">
-        <v>34.641111111111158</v>
+        <v>32.75111111111115</v>
       </c>
       <c r="S176" s="0">
         <v>50.012900000000002</v>
@@ -11154,7 +11174,7 @@
         <v>3</v>
       </c>
       <c r="R177" s="0">
-        <v>105.82666666666665</v>
+        <v>105.56333333333332</v>
       </c>
       <c r="S177" s="0">
         <v>22.978899999999999</v>
@@ -11278,7 +11298,7 @@
         <v>9</v>
       </c>
       <c r="R179" s="0">
-        <v>175.46444444444444</v>
+        <v>19.006250000000001</v>
       </c>
       <c r="S179" s="0">
         <v>28.385700000000003</v>
@@ -11340,7 +11360,7 @@
         <v>8</v>
       </c>
       <c r="R180" s="0">
-        <v>14.510000000000023</v>
+        <v>14.441428571428592</v>
       </c>
       <c r="S180" s="0">
         <v>24.3306</v>
@@ -11402,7 +11422,7 @@
         <v>7</v>
       </c>
       <c r="R181" s="0">
-        <v>16.745000000000005</v>
+        <v>16.463333333333338</v>
       </c>
       <c r="S181" s="0">
         <v>17.572100000000002</v>
@@ -11464,7 +11484,7 @@
         <v>4</v>
       </c>
       <c r="R182" s="0">
-        <v>3.9374999999999858</v>
+        <v>3.8474999999999824</v>
       </c>
       <c r="S182" s="0">
         <v>13.516999999999999</v>
@@ -11526,7 +11546,7 @@
         <v>6</v>
       </c>
       <c r="R183" s="0">
-        <v>3.9833333333333449</v>
+        <v>2.7433333333333443</v>
       </c>
       <c r="S183" s="0">
         <v>24.3306</v>
@@ -11588,7 +11608,7 @@
         <v>17</v>
       </c>
       <c r="R184" s="0">
-        <v>7.9247058823529608</v>
+        <v>7.5170588235294309</v>
       </c>
       <c r="S184" s="0">
         <v>60.826500000000003</v>
@@ -11650,7 +11670,7 @@
         <v>13</v>
       </c>
       <c r="R185" s="0">
-        <v>64.033846153846127</v>
+        <v>2.6416666666666466</v>
       </c>
       <c r="S185" s="0">
         <v>40.551000000000002</v>
@@ -11712,7 +11732,7 @@
         <v>7</v>
       </c>
       <c r="R186" s="0">
-        <v>39.700000000000045</v>
+        <v>36.581428571428603</v>
       </c>
       <c r="S186" s="0">
         <v>22.978899999999999</v>
@@ -11774,7 +11794,7 @@
         <v>4</v>
       </c>
       <c r="R187" s="0">
-        <v>7.3399999999999679</v>
+        <v>7.2274999999999707</v>
       </c>
       <c r="S187" s="0">
         <v>16.220400000000001</v>
@@ -11835,7 +11855,9 @@
       <c r="Q188" s="0">
         <v>0</v>
       </c>
-      <c r="R188" s="0"/>
+      <c r="R188" s="0">
+        <v>68.481666666666698</v>
+      </c>
       <c r="S188" s="0">
         <v>0</v>
       </c>
@@ -11896,7 +11918,7 @@
         <v>4</v>
       </c>
       <c r="R189" s="0">
-        <v>41.66749999999999</v>
+        <v>41.097499999999997</v>
       </c>
       <c r="S189" s="0">
         <v>29.737400000000001</v>
@@ -11958,7 +11980,7 @@
         <v>4</v>
       </c>
       <c r="R190" s="0">
-        <v>37.994999999999933</v>
+        <v>37.239999999999938</v>
       </c>
       <c r="S190" s="0">
         <v>43.254400000000004</v>
@@ -12020,7 +12042,7 @@
         <v>6</v>
       </c>
       <c r="R191" s="0">
-        <v>17.741666666666639</v>
+        <v>17.436666666666667</v>
       </c>
       <c r="S191" s="0">
         <v>33.792500000000004</v>
@@ -12082,7 +12104,7 @@
         <v>10</v>
       </c>
       <c r="R192" s="0">
-        <v>218.42800000000005</v>
+        <v>29.978750000000073</v>
       </c>
       <c r="S192" s="0">
         <v>43.254400000000004</v>
@@ -12144,7 +12166,7 @@
         <v>6</v>
       </c>
       <c r="R193" s="0">
-        <v>150.51166666666668</v>
+        <v>68.766000000000091</v>
       </c>
       <c r="S193" s="0">
         <v>31.089100000000002</v>
@@ -12206,7 +12228,7 @@
         <v>6</v>
       </c>
       <c r="R194" s="0">
-        <v>54.918333333333379</v>
+        <v>54.203333333333383</v>
       </c>
       <c r="S194" s="0">
         <v>37.8476</v>
@@ -12268,7 +12290,7 @@
         <v>3</v>
       </c>
       <c r="R195" s="0">
-        <v>11.936666666666667</v>
+        <v>11.423333333333318</v>
       </c>
       <c r="S195" s="0">
         <v>33.792500000000004</v>
@@ -12392,7 +12414,7 @@
         <v>5</v>
       </c>
       <c r="R197" s="0">
-        <v>38.453999999999986</v>
+        <v>35.379999999999981</v>
       </c>
       <c r="S197" s="0">
         <v>24.3306</v>
@@ -12454,7 +12476,7 @@
         <v>6</v>
       </c>
       <c r="R198" s="0">
-        <v>26.246666666666687</v>
+        <v>21.654999999999973</v>
       </c>
       <c r="S198" s="0">
         <v>27.033999999999999</v>
@@ -12516,7 +12538,7 @@
         <v>7</v>
       </c>
       <c r="R199" s="0">
-        <v>14.57285714285714</v>
+        <v>14.008571428571418</v>
       </c>
       <c r="S199" s="0">
         <v>37.8476</v>
@@ -12578,7 +12600,7 @@
         <v>11</v>
       </c>
       <c r="R200" s="0">
-        <v>11.926363636363574</v>
+        <v>11.706666666666615</v>
       </c>
       <c r="S200" s="0">
         <v>47.309500000000007</v>
@@ -12640,7 +12662,7 @@
         <v>29</v>
       </c>
       <c r="R201" s="0">
-        <v>2.0827586206896322</v>
+        <v>2.0426666666666415</v>
       </c>
       <c r="S201" s="0">
         <v>51.364599999999996</v>
@@ -12702,7 +12724,7 @@
         <v>22</v>
       </c>
       <c r="R202" s="0">
-        <v>1.9499999999999977</v>
+        <v>1.9832142857142852</v>
       </c>
       <c r="S202" s="0">
         <v>51.364599999999996</v>
@@ -12763,7 +12785,9 @@
       <c r="Q203" s="0">
         <v>0</v>
       </c>
-      <c r="R203" s="0"/>
+      <c r="R203" s="0">
+        <v>154.28000000000003</v>
+      </c>
       <c r="S203" s="0">
         <v>0</v>
       </c>
@@ -12886,7 +12910,7 @@
         <v>6</v>
       </c>
       <c r="R205" s="0">
-        <v>47.193333333333328</v>
+        <v>44.289999999999999</v>
       </c>
       <c r="S205" s="0">
         <v>12.1653</v>
@@ -12948,7 +12972,7 @@
         <v>11</v>
       </c>
       <c r="R206" s="0">
-        <v>29.632727272727223</v>
+        <v>28.640909090909044</v>
       </c>
       <c r="S206" s="0">
         <v>60.826500000000003</v>
@@ -13010,7 +13034,7 @@
         <v>12</v>
       </c>
       <c r="R207" s="0">
-        <v>36.451818181818197</v>
+        <v>34.751818181818201</v>
       </c>
       <c r="S207" s="0">
         <v>45.957799999999999</v>
@@ -13072,7 +13096,7 @@
         <v>10</v>
       </c>
       <c r="R208" s="0">
-        <v>45.705999999999946</v>
+        <v>44.459999999999951</v>
       </c>
       <c r="S208" s="0">
         <v>37.8476</v>
@@ -13134,7 +13158,7 @@
         <v>6</v>
       </c>
       <c r="R209" s="0">
-        <v>8.0319999999999894</v>
+        <v>7.7579999999999885</v>
       </c>
       <c r="S209" s="0">
         <v>41.902699999999996</v>
@@ -13196,7 +13220,7 @@
         <v>6</v>
       </c>
       <c r="R210" s="0">
-        <v>269.25799999999992</v>
+        <v>36.009999999999991</v>
       </c>
       <c r="S210" s="0">
         <v>16.220400000000001</v>
@@ -13258,7 +13282,7 @@
         <v>2</v>
       </c>
       <c r="R211" s="0">
-        <v>27.060000000000059</v>
+        <v>23.190000000000168</v>
       </c>
       <c r="S211" s="0">
         <v>29.737400000000001</v>
@@ -13320,7 +13344,7 @@
         <v>6</v>
       </c>
       <c r="R212" s="0">
-        <v>79.621666666666684</v>
+        <v>78.428333333333356</v>
       </c>
       <c r="S212" s="0">
         <v>37.8476</v>
@@ -13382,7 +13406,7 @@
         <v>5</v>
       </c>
       <c r="R213" s="0">
-        <v>44.842000000000006</v>
+        <v>44.529999999999994</v>
       </c>
       <c r="S213" s="0">
         <v>22.978899999999999</v>
@@ -13444,7 +13468,7 @@
         <v>2</v>
       </c>
       <c r="R214" s="0">
-        <v>199.03000000000003</v>
+        <v>196.435</v>
       </c>
       <c r="S214" s="0">
         <v>39.199300000000001</v>
@@ -13630,7 +13654,7 @@
         <v>3</v>
       </c>
       <c r="R217" s="0">
-        <v>24.240000000000009</v>
+        <v>22.575000000000003</v>
       </c>
       <c r="S217" s="0">
         <v>18.9238</v>
@@ -13691,7 +13715,9 @@
       <c r="Q218" s="0">
         <v>0</v>
       </c>
-      <c r="R218" s="0"/>
+      <c r="R218" s="0">
+        <v>112.62666666666667</v>
+      </c>
       <c r="S218" s="0">
         <v>0</v>
       </c>
@@ -13752,7 +13778,7 @@
         <v>8</v>
       </c>
       <c r="R219" s="0">
-        <v>14.656250000000043</v>
+        <v>13.930000000000064</v>
       </c>
       <c r="S219" s="0">
         <v>45.957799999999999</v>
@@ -13814,7 +13840,7 @@
         <v>4</v>
       </c>
       <c r="R220" s="0">
-        <v>306.4233333333334</v>
+        <v>11.650000000000013</v>
       </c>
       <c r="S220" s="0">
         <v>22.978899999999999</v>
@@ -13875,9 +13901,7 @@
       <c r="Q221" s="0">
         <v>1</v>
       </c>
-      <c r="R221" s="0">
-        <v>851.31999999999994</v>
-      </c>
+      <c r="R221" s="0"/>
       <c r="S221" s="0">
         <v>27.033999999999999</v>
       </c>
@@ -13938,7 +13962,7 @@
         <v>3</v>
       </c>
       <c r="R222" s="0">
-        <v>17.790000000000003</v>
+        <v>15.006666666666666</v>
       </c>
       <c r="S222" s="0">
         <v>16.220400000000001</v>
@@ -14000,7 +14024,7 @@
         <v>6</v>
       </c>
       <c r="R223" s="0">
-        <v>332.38</v>
+        <v>47.099999999999994</v>
       </c>
       <c r="S223" s="0">
         <v>12.1653</v>
@@ -14124,7 +14148,7 @@
         <v>6</v>
       </c>
       <c r="R225" s="0">
-        <v>15.585000000000013</v>
+        <v>15.098333333333334</v>
       </c>
       <c r="S225" s="0">
         <v>39.199300000000001</v>
@@ -14248,7 +14272,7 @@
         <v>3</v>
       </c>
       <c r="R227" s="0">
-        <v>16.346666666666657</v>
+        <v>16.193333333333324</v>
       </c>
       <c r="S227" s="0">
         <v>4.0551000000000004</v>
@@ -14310,7 +14334,7 @@
         <v>5</v>
       </c>
       <c r="R228" s="0">
-        <v>36.899999999999991</v>
+        <v>34.567999999999998</v>
       </c>
       <c r="S228" s="0">
         <v>9.4619</v>
@@ -14372,7 +14396,7 @@
         <v>2</v>
       </c>
       <c r="R229" s="0">
-        <v>61.589999999999996</v>
+        <v>59.140000000000001</v>
       </c>
       <c r="S229" s="0">
         <v>6.7584999999999997</v>
@@ -14434,7 +14458,7 @@
         <v>4</v>
       </c>
       <c r="R230" s="0">
-        <v>549.3175</v>
+        <v>21.983333333333348</v>
       </c>
       <c r="S230" s="0">
         <v>9.4619</v>
@@ -14496,7 +14520,7 @@
         <v>2</v>
       </c>
       <c r="R231" s="0">
-        <v>286.61000000000001</v>
+        <v>9.3599999999999</v>
       </c>
       <c r="S231" s="0">
         <v>8.1102000000000007</v>
